--- a/lab2/data analysis.xlsx
+++ b/lab2/data analysis.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332BA60B-9F88-E949-8F84-37D6ED6F43D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A507168-0CA2-5246-8E31-8A60EE0DE98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="copy" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="test" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="test_1" localSheetId="0">Sheet1!$B$4:$C$11</definedName>
+    <definedName name="lookup_1" localSheetId="1">lookup!$B$5:$C$11</definedName>
+    <definedName name="test" localSheetId="0">copy!#REF!</definedName>
+    <definedName name="test_1" localSheetId="0">copy!$B$4:$C$11</definedName>
+    <definedName name="test_1" localSheetId="1">lookup!$B$4:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7FCA71CD-5A69-044A-B629-0663B7D06C6A}" name="test1" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{FF29D363-08E7-6D4B-8EA0-95231269D830}" name="lookup1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lookup.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{7FCA71CD-5A69-044A-B629-0663B7D06C6A}" name="test1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{4CFBDA67-3BCA-7745-BE1E-FC93588206EB}" name="test11" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
       <textFields count="2">
         <textField/>
@@ -51,7 +70,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -73,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Inputs</t>
   </si>
@@ -92,13 +111,21 @@
   <si>
     <t>https://stackoverflow.com/questions/47859482/what-is-the-fastest-way-to-make-a-shallow-copy-of-list-in-python3-5</t>
   </si>
+  <si>
+    <t>log 10</t>
+  </si>
+  <si>
+    <t>time * 10^6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,10 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,7 +263,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$11</c:f>
+              <c:f>copy!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -263,7 +293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$11</c:f>
+              <c:f>copy!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -485,7 +515,1261 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>log scale by excel (once again wtf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> is this</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>copy!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>copy!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.08931340000708E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2006368011498099E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5662518006138201E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7688443993829398E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3551192897139101E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2100861810104101E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000000000">
+                  <c:v>0.242666782749999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A9A-BC45-B37E-A270C2BEDD2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1146656463"/>
+        <c:axId val="1147393615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1146656463"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147393615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1147393615"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146656463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log graph from value </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lookup!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lookup!$G$5:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60166894839737628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2768040493144679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2157224050939193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2701735498037499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2305099175870611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1994097673189561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1943807827877011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC28-BE4A-A155-19E65E28A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1126109679"/>
+        <c:axId val="1126111327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1126109679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>10 to the power of ^^^</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1126111327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1126111327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1126109679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>excel graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with log scale enabled (idk what this is)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lookup!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lookup!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.9963999824976697E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8914899987976199E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.64332099984676E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86283139994429E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7002387800016502E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15827406890002699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56451878769998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAD1-3942-BA20-838D1DFF8083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1148025455"/>
+        <c:axId val="1148138911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1148025455"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148138911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1148138911"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148025455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1041,20 +2325,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1079,11 +3911,132 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A7C3DE-8400-7541-AC0F-556C2E806100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2498D73F-86A6-6041-B460-EA5791A19085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A2E212-B0DC-6C4E-B27A-2AA2F1951CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="1" xr16:uid="{0CCAB399-9CE0-0644-961E-B20C8E0D087B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="2" xr16:uid="{0CCAB399-9CE0-0644-961E-B20C8E0D087B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="1" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="3" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF84656-5985-0C44-AB07-2FFB3D1F54DE}">
   <dimension ref="B4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,7 +4378,7 @@
         <v>1.0893134000070799</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5:F11">LOG(B5:B11)</f>
+        <f t="array" ref="F5:F11">LOG10(B5:B11)</f>
         <v>0</v>
       </c>
       <c r="G5" cm="1">
@@ -1558,4 +4511,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A0FC0-8ECA-F840-B37C-24789FEB3689}">
+  <dimension ref="B4:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.9963999824976697E-6</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C5*10^6</f>
+        <v>3.9963999824976697</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5:F11">LOG10(B5:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5:G11">LOG(E5:E11)</f>
+        <v>0.60166894839737628</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.8914899987976199E-5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E11" si="0">C6*10^6</f>
+        <v>18.914899987976199</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.2768040493144679</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.64332099984676E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>164.33209998467601</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2.2157224050939193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.86283139994429E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>1862.8313999442901</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3.2701735498037499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.7002387800016502E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>17002.387800016502</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4.2305099175870611</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>100000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15827406890002699</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>158274.06890002699</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5.1994097673189561</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.56451878769998</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>1564518.78769998</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6.1943807827877011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab2/data analysis.xlsx
+++ b/lab2/data analysis.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A507168-0CA2-5246-8E31-8A60EE0DE98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3768F7-4FCC-C940-9CA3-3E261A967E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
     <sheet name="lookup" sheetId="2" r:id="rId2"/>
+    <sheet name="append" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="append" localSheetId="2">append!$B$3:$C$22</definedName>
     <definedName name="lookup_1" localSheetId="1">lookup!$B$5:$C$11</definedName>
     <definedName name="test" localSheetId="0">copy!#REF!</definedName>
     <definedName name="test_1" localSheetId="0">copy!$B$4:$C$11</definedName>
@@ -42,15 +44,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{FF29D363-08E7-6D4B-8EA0-95231269D830}" name="lookup1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lookup.csv" comma="1">
+  <connection id="1" xr16:uid="{0A5CEC40-2BD0-7646-8FF4-BF832DFF6318}" name="append" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{7FCA71CD-5A69-044A-B629-0663B7D06C6A}" name="test1" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{FF29D363-08E7-6D4B-8EA0-95231269D830}" name="lookup1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lookup.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{7FCA71CD-5A69-044A-B629-0663B7D06C6A}" name="test1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
       <textFields count="2">
         <textField/>
@@ -58,7 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{4CFBDA67-3BCA-7745-BE1E-FC93588206EB}" name="test11" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{4CFBDA67-3BCA-7745-BE1E-FC93588206EB}" name="test11" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
       <textFields count="2">
         <textField/>
@@ -92,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Inputs</t>
   </si>
@@ -124,8 +134,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000"/>
-    <numFmt numFmtId="187" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,13 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1649,6 +1660,820 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>append!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1072099696478683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4082399653118496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7092699609758308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0102999566398121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3113299523037933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6123599479677742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9133899436317554</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2144199392957367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5154499349597179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8164799306236992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1175099262876804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4185399219516617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7195699176156429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>append!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.35721041928485647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32876682970048471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5300587537419027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71275068860200363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94782078713280615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2593405860107285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5082549155287872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8987377934910536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0995836217289239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4319552884331861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7740140609147481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0517118422480727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3582142294261907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6685506098141913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0217927433666691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2659662089317996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5618401222578893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8753046456132569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1712185176668495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4710334652976993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5558-594E-9AC8-E01DDDAA7B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1924612895"/>
+        <c:axId val="1872258543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1924612895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872258543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1872258543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924612895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>append!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>append!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.2762000014608899E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1319000005348698E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3888999993791899E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.16120000000341E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8679000008085E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8169399999123899E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.22295999993116E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9202299999536706E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.2577190000016001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.7036800000104202E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>5.9431139999901398E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.1264497999995599E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.28146719999955E-3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>4.6617675000007299E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.05145997000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.84487187000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.64619693999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.5042042399998302E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.14832642100000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.29582404099999798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E95E-E74C-A501-DDE777248CF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1874327183"/>
+        <c:axId val="1874571311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1874327183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874571311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1874571311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874327183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1809,6 +2634,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3358,6 +4263,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4027,16 +5964,97 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251E983A-DCD6-A544-91C8-9E1804D478D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B83EA2F-1BB5-BC49-8687-6A4061ABA0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="2" xr16:uid="{0CCAB399-9CE0-0644-961E-B20C8E0D087B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="3" xr16:uid="{0CCAB399-9CE0-0644-961E-B20C8E0D087B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="1" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="2" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="3" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="append" connectionId="1" xr16:uid="{1CC3C41D-8684-7146-862A-A030AC69F9C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4517,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A0FC0-8ECA-F840-B37C-24789FEB3689}">
   <dimension ref="B4:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4683,4 +6701,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844858F-4E6C-4B42-A1C2-4B199101FF85}">
+  <dimension ref="B2:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.2762000014608899E-6</v>
+      </c>
+      <c r="E3" s="4">
+        <f>C3*10^6</f>
+        <v>2.2762000014608899</v>
+      </c>
+      <c r="F3">
+        <f>LOG(B3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>LOG(E3)</f>
+        <v>0.35721041928485647</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.1319000005348698E-6</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E22" si="0">C4*10^6</f>
+        <v>2.1319000005348698</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F22" si="1">LOG(B4)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="2">LOG(E4)</f>
+        <v>0.32876682970048471</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.3888999993791899E-6</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.38889999937919</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.5300587537419027</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.16120000000341E-6</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1612000000034097</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.71275068860200363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.8679000008085E-6</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8679000008085005</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.94782078713280615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.8169399999123899E-5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>18.1693999991239</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.2593405860107285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.22295999993116E-5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>32.229599999311603</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.5082549155287872</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.9202299999536706E-5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>79.202299999536706</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.8987377934910536</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>256</v>
+      </c>
+      <c r="C11">
+        <v>1.2577190000016001E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>125.77190000016</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2.0995836217289239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>512</v>
+      </c>
+      <c r="C12">
+        <v>2.7036800000104202E-4</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>270.36800000104205</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.7092699609758308</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2.4319552884331861</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1024</v>
+      </c>
+      <c r="C13">
+        <v>5.9431139999901398E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>594.31139999901393</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.0102999566398121</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2.7740140609147481</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2048</v>
+      </c>
+      <c r="C14">
+        <v>1.1264497999995599E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1126.4497999995599</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.3113299523037933</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>3.0517118422480727</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>4096</v>
+      </c>
+      <c r="C15">
+        <v>2.28146719999955E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>2281.4671999995498</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.6123599479677742</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>3.3582142294261907</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>8192</v>
+      </c>
+      <c r="C16">
+        <v>4.6617675000007299E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>4661.7675000007303</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3.9133899436317554</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.6685506098141913</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>16384</v>
+      </c>
+      <c r="C17">
+        <v>1.05145997000022E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>10514.5997000022</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.2144199392957367</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.0217927433666691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>32768</v>
+      </c>
+      <c r="C18">
+        <v>1.84487187000009E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18*10^6</f>
+        <v>18448.7187000009</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4.5154499349597179</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.2659662089317996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>65536</v>
+      </c>
+      <c r="C19">
+        <v>3.64619693999991E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>36461.9693999991</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4.8164799306236992</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>4.5618401222578893</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>131072</v>
+      </c>
+      <c r="C20">
+        <v>7.5042042399998302E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>75042.042399998303</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.1175099262876804</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.8753046456132569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>262144</v>
+      </c>
+      <c r="C21">
+        <v>0.14832642100000001</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>148326.421</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.4185399219516617</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5.1712185176668495</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>524288</v>
+      </c>
+      <c r="C22">
+        <v>0.29582404099999798</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>295824.04099999799</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.7195699176156429</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5.4710334652976993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab2/data analysis.xlsx
+++ b/lab2/data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3768F7-4FCC-C940-9CA3-3E261A967E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBA7D9-0D94-8449-B042-3BE1EEB6F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A5CEC40-2BD0-7646-8FF4-BF832DFF6318}" name="append" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -137,7 +137,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,14 @@
       <color rgb="FFF6F6F4"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,8 +189,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2301,6 +2312,7 @@
       <c:valAx>
         <c:axId val="1874327183"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2363,6 +2375,7 @@
       <c:valAx>
         <c:axId val="1874571311"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6046,11 +6059,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="2" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="2" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6354,10 +6367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF84656-5985-0C44-AB07-2FFB3D1F54DE}">
-  <dimension ref="B4:G19"/>
+  <dimension ref="B4:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="E4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6367,7 +6380,7 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -6383,8 +6396,11 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6404,7 +6420,7 @@
         <v>3.7152846066538049E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10</v>
       </c>
@@ -6422,7 +6438,7 @@
         <v>7.9411650940015274E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>100</v>
       </c>
@@ -6440,7 +6456,7 @@
         <v>0.19486158328150197</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>0.5762082075253987</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10000</v>
       </c>
@@ -6475,8 +6491,11 @@
       <c r="G9">
         <v>1.3720129095763527</v>
       </c>
+      <c r="S9" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>100000</v>
       </c>
@@ -6494,7 +6513,7 @@
         <v>2.344409209073127</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1000000</v>
       </c>
@@ -6512,22 +6531,20 @@
         <v>3.3850103323447702</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>4</v>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S9" r:id="rId1" xr:uid="{181F2F70-F592-8043-A121-BED2D4671D0C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6536,7 +6553,7 @@
   <dimension ref="B4:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6707,8 +6724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844858F-4E6C-4B42-A1C2-4B199101FF85}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lab2/data analysis.xlsx
+++ b/lab2/data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBA7D9-0D94-8449-B042-3BE1EEB6F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABAF67-5CF8-AC40-A5FE-92E0D170E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="append" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="append" localSheetId="2">append!$B$3:$C$22</definedName>
-    <definedName name="lookup_1" localSheetId="1">lookup!$B$5:$C$11</definedName>
+    <definedName name="append_1" localSheetId="2">append!$B$3:$C$16</definedName>
+    <definedName name="lookup_1" localSheetId="1">lookup!$B$6:$C$18</definedName>
     <definedName name="test" localSheetId="0">copy!#REF!</definedName>
-    <definedName name="test_1" localSheetId="0">copy!$B$4:$C$11</definedName>
-    <definedName name="test_1" localSheetId="1">lookup!$B$4:$C$11</definedName>
+    <definedName name="test_1" localSheetId="0">copy!$B$5:$C$18</definedName>
+    <definedName name="test_1" localSheetId="1">lookup!$B$5:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,8 +44,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0A5CEC40-2BD0-7646-8FF4-BF832DFF6318}" name="append" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
+  <connection id="1" xr16:uid="{51845520-BEB0-2E43-8208-9B84E19A51C1}" name="append" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -61,7 +61,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{7FCA71CD-5A69-044A-B629-0663B7D06C6A}" name="test1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/copy.csv" tab="0" comma="1" qualifier="singleQuote">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -69,7 +69,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{4CFBDA67-3BCA-7745-BE1E-FC93588206EB}" name="test11" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/test.csv" tab="0" comma="1" qualifier="singleQuote">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lookup.csv" tab="0" comma="1" qualifier="singleQuote">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -102,13 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>log</t>
   </si>
@@ -132,8 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
@@ -181,9 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -223,6 +215,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>.copy() performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -285,60 +302,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>copy!$F$5:$F$11</c:f>
+              <c:f>copy!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>4.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>5.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4771212547196626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>copy!$G$5:$G$11</c:f>
+              <c:f>copy!$G$5:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.7152846066538049E-2</c:v>
+                  <c:v>0.37624837476689899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9411650940015274E-2</c:v>
+                  <c:v>0.29252188431850212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19486158328150197</c:v>
+                  <c:v>0.37839790253723937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5762082075253987</c:v>
+                  <c:v>0.39259144412805119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3720129095763527</c:v>
+                  <c:v>0.80101932992281111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.344409209073127</c:v>
+                  <c:v>0.99008122149429723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3850103323447702</c:v>
+                  <c:v>1.325378128739229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9656179160632912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1984717850943163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6322790835337289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.304607401026757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8350031767921529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7003065584349963</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1166694648675737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,6 +441,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of inputs (Powers</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of 10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -444,6 +563,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (log scale)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -647,60 +826,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>copy!$B$5:$B$11</c:f>
+              <c:f>copy!$B$5:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>copy!$C$5:$C$11</c:f>
+              <c:f>copy!$C$5:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.08931340000708E-4</c:v>
+                  <c:v>2.37819999995281E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2006368011498099E-4</c:v>
+                  <c:v>1.96119999884558E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5662518006138201E-4</c:v>
+                  <c:v>2.3900000087451099E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7688443993829398E-4</c:v>
+                  <c:v>2.4694000018143899E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3551192897139101E-3</c:v>
+                  <c:v>6.3243999989026603E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2100861810104101E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.000000000">
-                  <c:v>0.242666782749999</c:v>
+                  <c:v>9.7742000036760099E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1153300002651999E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2388500002016296E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.57932599998389E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2882400000223699E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0165425999977E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8391665000007099E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0154113500002498E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13081859030000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +1029,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -921,13 +1142,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -936,7 +1171,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Log graph from value </a:t>
+              <a:t>lookup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (array[i])</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> performance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -953,13 +1196,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1003,60 +1260,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lookup!$F$5:$F$11</c:f>
+              <c:f>lookup!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>4.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>5.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4771212547196626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lookup!$G$5:$G$11</c:f>
+              <c:f>lookup!$G$5:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.60166894839737628</c:v>
+                  <c:v>0.54667835908506091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2768040493144679</c:v>
+                  <c:v>0.56741458591051541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2157224050939193</c:v>
+                  <c:v>0.9355173421743378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2701735498037499</c:v>
+                  <c:v>1.4547884742338526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2305099175870611</c:v>
+                  <c:v>1.9261535594451302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1994097673189561</c:v>
+                  <c:v>2.4928732071469444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1943807827877011</c:v>
+                  <c:v>2.9535687824231562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4099987863960877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8699653391382092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.348565731400158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9078747341338111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3559782184066362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8561300193863168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3240714385190353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,13 +1405,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1121,7 +1434,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>10 to the power of ^^^</a:t>
+                  <a:t>Number of inputs (Powers of 10)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1138,13 +1451,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1217,6 +1544,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1417,60 +1827,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lookup!$B$5:$B$11</c:f>
+              <c:f>lookup!$B$5:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lookup!$C$5:$C$11</c:f>
+              <c:f>lookup!$C$5:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.9963999824976697E-6</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.5210999982382401E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8914899987976199E-5</c:v>
+                  <c:v>3.6932999989858202E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.64332099984676E-4</c:v>
+                  <c:v>8.6202000005641808E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.86283139994429E-3</c:v>
+                  <c:v>2.8496299998437201E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7002387800016502E-2</c:v>
+                  <c:v>8.4363299990286496E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15827406890002699</c:v>
+                  <c:v>3.1108079999739801E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56451878769998</c:v>
+                  <c:v>8.9860489999296004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5703885999973802E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4125108000003999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2313398999997899E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0886256100001205E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.226975101199997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.718009217199997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1089750336000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +2030,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1686,6 +2138,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>.append() performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1698,13 +2189,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1748,138 +2253,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>append!$F$3:$F$22</c:f>
+              <c:f>append!$F$3:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3010299956639812</c:v>
+                  <c:v>0.47712125471966244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6020599913279624</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90308998699194354</c:v>
+                  <c:v>1.4771212547196624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2041199826559248</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505149978319906</c:v>
+                  <c:v>2.4771212547196626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8061799739838871</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1072099696478683</c:v>
+                  <c:v>3.4771212547196626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4082399653118496</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7092699609758308</c:v>
+                  <c:v>4.4771212547196626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0102999566398121</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3113299523037933</c:v>
+                  <c:v>5.4771212547196626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6123599479677742</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9133899436317554</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2144199392957367</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5154499349597179</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.8164799306236992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.1175099262876804</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.4185399219516617</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.7195699176156429</c:v>
+                  <c:v>6.4771212547196626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>append!$G$3:$G$22</c:f>
+              <c:f>append!$G$3:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.35721041928485647</c:v>
+                  <c:v>0.26309137764793378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32876682970048471</c:v>
+                  <c:v>0.47686059983966689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5300587537419027</c:v>
+                  <c:v>0.83777146082535126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71275068860200363</c:v>
+                  <c:v>1.2506907419114706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94782078713280615</c:v>
+                  <c:v>1.731301020314056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2593405860107285</c:v>
+                  <c:v>2.2298420180499989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5082549155287872</c:v>
+                  <c:v>2.7319396847938431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8987377934910536</c:v>
+                  <c:v>3.2099816303473032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0995836217289239</c:v>
+                  <c:v>3.7391989913656922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4319552884331861</c:v>
+                  <c:v>4.2734435523236236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7740140609147481</c:v>
+                  <c:v>4.7363111785374157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0517118422480727</c:v>
+                  <c:v>5.2426215750673792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3582142294261907</c:v>
+                  <c:v>5.771939357045123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6685506098141913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.0217927433666691</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2659662089317996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5618401222578893</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8753046456132569</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.1712185176668495</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.4710334652976993</c:v>
+                  <c:v>6.2424271304800136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,6 +2392,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of inputs (Powers of 10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1985,6 +2537,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2163,61 +2798,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4096</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,64 +2846,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2762000014608899E-6</c:v>
+                  <c:v>1.83269999070034E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1319000005348698E-6</c:v>
+                  <c:v>2.9982000000927598E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3888999993791899E-6</c:v>
+                  <c:v>6.8829000156256299E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.16120000000341E-6</c:v>
+                  <c:v>1.7811099996833899E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8679000008085E-6</c:v>
+                  <c:v>5.3864300002714997E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8169399999123899E-5</c:v>
+                  <c:v>1.69762600000922E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.22295999993116E-5</c:v>
+                  <c:v>5.3943570000001195E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9202299999536706E-5</c:v>
+                  <c:v>1.62174149999145E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>1.2577190000016001E-4</c:v>
+                  <c:v>5.4852824000135997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2.7036800000104202E-4</c:v>
+                  <c:v>1.8769104499995099E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>5.9431139999901398E-4</c:v>
+                  <c:v>5.4489293699975801E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.1264497999995599E-3</c:v>
+                  <c:v>0.17483226140001301</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>2.28146719999955E-3</c:v>
+                  <c:v>0.59147903690000003</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>4.6617675000007299E-3</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1.05145997000022E-2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1.84487187000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>3.64619693999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>7.5042042399998302E-2</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0.14832642100000001</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.29582404099999798</c:v>
+                  <c:v>1.7475400210999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,9 +6427,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -6067,7 +6666,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="append" connectionId="1" xr16:uid="{1CC3C41D-8684-7146-862A-A030AC69F9C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="append_1" connectionId="1" xr16:uid="{C9E29E49-2EBB-3A4E-842B-DADFEDB374C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6367,177 +6966,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF84656-5985-0C44-AB07-2FFB3D1F54DE}">
-  <dimension ref="B4:S19"/>
+  <dimension ref="B4:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="E4:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1.08931340000708E-4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E11" si="0">C5*10^4</f>
-        <v>1.0893134000070799</v>
+      <c r="C5" s="4">
+        <v>2.37819999995281E-6</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5*10^6</f>
+        <v>2.3781999999528098</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5:F11">LOG10(B5:B11)</f>
+        <f t="array" ref="F5:F18">LOG10(B5:B18)</f>
         <v>0</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" ref="G5:G11">LOG(E5:E11)</f>
-        <v>3.7152846066538049E-2</v>
+        <f t="array" ref="G5:G18">LOG(E5:E18)</f>
+        <v>0.37624837476689899</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1.2006368011498099E-4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.2006368011498099</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.96119999884558E-6</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E18" si="0">C6*10^6</f>
+        <v>1.9611999988455799</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="G6">
-        <v>7.9411650940015274E-2</v>
+        <v>0.29252188431850212</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>1.5662518006138201E-4</v>
-      </c>
-      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.3900000087451099E-6</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>1.5662518006138202</v>
+        <v>2.3900000087451101</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.19486158328150197</v>
+        <v>0.37839790253723937</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>3.7688443993829398E-4</v>
-      </c>
-      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.4694000018143899E-6</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>3.7688443993829397</v>
+        <v>2.4694000018143898</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1.4771212547196624</v>
       </c>
       <c r="G8">
-        <v>0.5762082075253987</v>
+        <v>0.39259144412805119</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9">
-        <v>2.3551192897139101E-3</v>
-      </c>
-      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.3243999989026603E-6</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>23.551192897139103</v>
+        <v>6.3243999989026607</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1.3720129095763527</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>5</v>
+        <v>0.80101932992281111</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>100000</v>
-      </c>
-      <c r="C10">
-        <v>2.2100861810104101E-2</v>
-      </c>
-      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.7742000036760099E-6</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>221.00861810104101</v>
+        <v>9.7742000036760093</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2.4771212547196626</v>
       </c>
       <c r="G10">
-        <v>2.344409209073127</v>
+        <v>0.99008122149429723</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1000000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.242666782749999</v>
-      </c>
-      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.1153300002651999E-5</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>2426.6678274999899</v>
+        <v>21.153300002651999</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3.3850103323447702</v>
+        <v>1.325378128739229</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.2388500002016296E-5</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>92.388500002016301</v>
+      </c>
+      <c r="F12">
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="G12">
+        <v>1.9656179160632912</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.57932599998389E-4</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>157.93259999838901</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2.1984717850943163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.2882400000223699E-4</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>428.82400000223697</v>
+      </c>
+      <c r="F14">
+        <v>4.4771212547196626</v>
+      </c>
+      <c r="G14">
+        <v>2.6322790835337289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.0165425999977E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>2016.5425999977001</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3.304607401026757</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>300000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.8391665000007099E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>6839.1665000007097</v>
+      </c>
+      <c r="F16">
+        <v>5.4771212547196626</v>
+      </c>
+      <c r="G16">
+        <v>3.8350031767921529</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.0154113500002498E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>50154.113500002495</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>4.7003065584349963</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3000000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.13081859030000001</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>130818.59030000001</v>
+      </c>
+      <c r="F18">
+        <v>6.4771212547196626</v>
+      </c>
+      <c r="G18">
+        <v>5.1166694648675737</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6550,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A0FC0-8ECA-F840-B37C-24789FEB3689}">
-  <dimension ref="B4:G15"/>
+  <dimension ref="B4:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6564,155 +7283,275 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>3.9963999824976697E-6</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="2">
+        <v>3.5210999982382401E-6</v>
+      </c>
+      <c r="E5" s="3">
         <f>C5*10^6</f>
-        <v>3.9963999824976697</v>
+        <v>3.52109999823824</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5:F11">LOG10(B5:B11)</f>
+        <f t="array" ref="F5:F18">LOG10(B5:B18)</f>
         <v>0</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" ref="G5:G11">LOG(E5:E11)</f>
-        <v>0.60166894839737628</v>
+        <f t="array" ref="G5:G18">LOG(E5:E18)</f>
+        <v>0.54667835908506091</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.8914899987976199E-5</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E11" si="0">C6*10^6</f>
-        <v>18.914899987976199</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.6932999989858202E-6</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E18" si="0">C6*10^6</f>
+        <v>3.6932999989858204</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="G6">
-        <v>1.2768040493144679</v>
+        <v>0.56741458591051541</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.64332099984676E-4</v>
-      </c>
-      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6202000005641808E-6</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>164.33209998467601</v>
+        <v>8.6202000005641803</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2157224050939193</v>
+        <v>0.9355173421743378</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.86283139994429E-3</v>
-      </c>
-      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.8496299998437201E-5</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>1862.8313999442901</v>
+        <v>28.496299998437202</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1.4771212547196624</v>
       </c>
       <c r="G8">
-        <v>3.2701735498037499</v>
+        <v>1.4547884742338526</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.7002387800016502E-2</v>
-      </c>
-      <c r="E9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.4363299990286496E-5</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>17002.387800016502</v>
+        <v>84.363299990286492</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>4.2305099175870611</v>
+        <v>1.9261535594451302</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>100000</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.15827406890002699</v>
-      </c>
-      <c r="E10" s="4">
+        <v>300</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.1108079999739801E-4</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>158274.06890002699</v>
+        <v>311.080799997398</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2.4771212547196626</v>
       </c>
       <c r="G10">
-        <v>5.1994097673189561</v>
+        <v>2.4928732071469444</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1000000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.56451878769998</v>
-      </c>
-      <c r="E11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.9860489999296004E-4</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>1564518.78769998</v>
+        <v>898.6048999929601</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>6.1943807827877011</v>
+        <v>2.9535687824231562</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.5703885999973802E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2570.38859999738</v>
+      </c>
+      <c r="F12">
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="G12">
+        <v>3.4099987863960877</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.4125108000003999E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>7412.5108000004002</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3.8699653391382092</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.2313398999997899E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>22313.398999997898</v>
+      </c>
+      <c r="F14">
+        <v>4.4771212547196626</v>
+      </c>
+      <c r="G14">
+        <v>4.348565731400158</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.0886256100001205E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>80886.256100001207</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>4.9078747341338111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>300000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.226975101199997</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>226975.10119999701</v>
+      </c>
+      <c r="F16">
+        <v>5.4771212547196626</v>
+      </c>
+      <c r="G16">
+        <v>5.3559782184066362</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.718009217199997</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>718009.21719999705</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>5.8561300193863168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3000000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.1089750336000002</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>2108975.0336000002</v>
+      </c>
+      <c r="F18">
+        <v>6.4771212547196626</v>
+      </c>
+      <c r="G18">
+        <v>6.3240714385190353</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6725,37 +7564,37 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>2.2762000014608899E-6</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="2">
+        <v>1.83269999070034E-6</v>
+      </c>
+      <c r="E3" s="3">
         <f>C3*10^6</f>
-        <v>2.2762000014608899</v>
+        <v>1.8326999907003401</v>
       </c>
       <c r="F3">
         <f>LOG(B3)</f>
@@ -6763,415 +7602,313 @@
       </c>
       <c r="G3">
         <f>LOG(E3)</f>
-        <v>0.35721041928485647</v>
+        <v>0.26309137764793378</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2.1319000005348698E-6</v>
-      </c>
-      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.9982000000927598E-6</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E22" si="0">C4*10^6</f>
-        <v>2.1319000005348698</v>
+        <v>2.9982000000927598</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F22" si="1">LOG(B4)</f>
-        <v>0.3010299956639812</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G22" si="2">LOG(E4)</f>
-        <v>0.32876682970048471</v>
+        <v>0.47686059983966689</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.3888999993791899E-6</v>
-      </c>
-      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.8829000156256299E-6</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>3.38889999937919</v>
+        <v>6.8829000156256299</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.6020599913279624</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.5300587537419027</v>
+        <v>0.83777146082535126</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5.16120000000341E-6</v>
-      </c>
-      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.7811099996833899E-5</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>5.1612000000034097</v>
+        <v>17.811099996833899</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.90308998699194354</v>
+        <v>1.4771212547196624</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.71275068860200363</v>
+        <v>1.2506907419114706</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8.8679000008085E-6</v>
-      </c>
-      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.3864300002714997E-5</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>8.8679000008085005</v>
+        <v>53.864300002714998</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.2041199826559248</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.94782078713280615</v>
+        <v>1.731301020314056</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.8169399999123899E-5</v>
-      </c>
-      <c r="E8" s="4">
+        <v>300</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.69762600000922E-4</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>18.1693999991239</v>
+        <v>169.76260000092199</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.505149978319906</v>
+        <v>2.4771212547196626</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>1.2593405860107285</v>
+        <v>2.2298420180499989</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>64</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.22295999993116E-5</v>
-      </c>
-      <c r="E9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.3943570000001195E-4</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>32.229599999311603</v>
+        <v>539.43570000001193</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.8061799739838871</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1.5082549155287872</v>
+        <v>2.7319396847938431</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>128</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7.9202299999536706E-5</v>
-      </c>
-      <c r="E10" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.62174149999145E-3</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>79.202299999536706</v>
+        <v>1621.7414999914502</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2.1072099696478683</v>
+        <v>3.4771212547196626</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.8987377934910536</v>
+        <v>3.2099816303473032</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>256</v>
+        <v>10000</v>
       </c>
       <c r="C11">
-        <v>1.2577190000016001E-4</v>
-      </c>
-      <c r="E11" s="4">
+        <v>5.4852824000135997E-3</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>125.77190000016</v>
+        <v>5485.2824000135997</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>2.4082399653118496</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>2.0995836217289239</v>
+        <v>3.7391989913656922</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>512</v>
+        <v>30000</v>
       </c>
       <c r="C12">
-        <v>2.7036800000104202E-4</v>
-      </c>
-      <c r="E12" s="4">
+        <v>1.8769104499995099E-2</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>270.36800000104205</v>
+        <v>18769.104499995101</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2.7092699609758308</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>2.4319552884331861</v>
+        <v>4.2734435523236236</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1024</v>
+        <v>100000</v>
       </c>
       <c r="C13">
-        <v>5.9431139999901398E-4</v>
-      </c>
-      <c r="E13" s="4">
+        <v>5.4489293699975801E-2</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>594.31139999901393</v>
+        <v>54489.293699975802</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.0102999566398121</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>2.7740140609147481</v>
+        <v>4.7363111785374157</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>2048</v>
+        <v>300000</v>
       </c>
       <c r="C14">
-        <v>1.1264497999995599E-3</v>
-      </c>
-      <c r="E14" s="4">
+        <v>0.17483226140001301</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1126.4497999995599</v>
+        <v>174832.261400013</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>3.3113299523037933</v>
+        <v>5.4771212547196626</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>3.0517118422480727</v>
+        <v>5.2426215750673792</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>4096</v>
+        <v>1000000</v>
       </c>
       <c r="C15">
-        <v>2.28146719999955E-3</v>
-      </c>
-      <c r="E15" s="4">
+        <v>0.59147903690000003</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>2281.4671999995498</v>
+        <v>591479.03690000006</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>3.6123599479677742</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>3.3582142294261907</v>
+        <v>5.771939357045123</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>8192</v>
+        <v>3000000</v>
       </c>
       <c r="C16">
-        <v>4.6617675000007299E-3</v>
-      </c>
-      <c r="E16" s="4">
+        <v>1.7475400210999901</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>4661.7675000007303</v>
+        <v>1747540.02109999</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>3.9133899436317554</v>
+        <v>6.4771212547196626</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>3.6685506098141913</v>
+        <v>6.2424271304800136</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>16384</v>
-      </c>
-      <c r="C17">
-        <v>1.05145997000022E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>10514.5997000022</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>4.2144199392957367</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>4.0217927433666691</v>
-      </c>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>32768</v>
-      </c>
-      <c r="C18">
-        <v>1.84487187000009E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <f>C18*10^6</f>
-        <v>18448.7187000009</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>4.5154499349597179</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>4.2659662089317996</v>
-      </c>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>65536</v>
-      </c>
-      <c r="C19">
-        <v>3.64619693999991E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>36461.9693999991</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>4.8164799306236992</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>4.5618401222578893</v>
-      </c>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>131072</v>
-      </c>
-      <c r="C20">
-        <v>7.5042042399998302E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>75042.042399998303</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>5.1175099262876804</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>4.8753046456132569</v>
-      </c>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>262144</v>
-      </c>
-      <c r="C21">
-        <v>0.14832642100000001</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>148326.421</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>5.4185399219516617</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>5.1712185176668495</v>
-      </c>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>524288</v>
-      </c>
-      <c r="C22">
-        <v>0.29582404099999798</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>295824.04099999799</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5.7195699176156429</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>5.4710334652976993</v>
-      </c>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E23" s="6"/>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="6"/>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E25" s="6"/>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E26" s="6"/>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E28" s="6"/>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E29" s="6"/>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E30" s="6"/>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab2/data analysis.xlsx
+++ b/lab2/data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABAF67-5CF8-AC40-A5FE-92E0D170E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4872A0E-60E6-8B49-89D6-FA0901069032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{B7C8D87A-E2C4-F247-BA18-5485F5E3C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{51845520-BEB0-2E43-8208-9B84E19A51C1}" name="append" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/append.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -127,8 +127,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,8 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -2309,46 +2309,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.26309137764793378</c:v>
+                  <c:v>0.23487147706729347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47686059983966689</c:v>
+                  <c:v>0.4685097980772962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83777146082535126</c:v>
+                  <c:v>1.1008011790782082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2506907419114706</c:v>
+                  <c:v>1.3746695456780744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.731301020314056</c:v>
+                  <c:v>1.9744370776889124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2298420180499989</c:v>
+                  <c:v>2.3552781125236977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7319396847938431</c:v>
+                  <c:v>2.8312235444509266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2099816303473032</c:v>
+                  <c:v>3.2797582868176236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7391989913656922</c:v>
+                  <c:v>3.795152503602774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2734435523236236</c:v>
+                  <c:v>4.2761567465022292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7363111785374157</c:v>
+                  <c:v>4.7765516738048941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2426215750673792</c:v>
+                  <c:v>5.2668235845048459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.771939357045123</c:v>
+                  <c:v>5.7374648335430596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2424271304800136</c:v>
+                  <c:v>6.2063231265544445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,46 +2846,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.83269999070034E-6</c:v>
+                  <c:v>1.71740007317566E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9982000000927598E-6</c:v>
+                  <c:v>2.94110004688263E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8829000156256299E-6</c:v>
+                  <c:v>1.2612499995157099E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7811099996833899E-5</c:v>
+                  <c:v>2.3695700156167699E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3864300002714997E-5</c:v>
+                  <c:v>9.4283799944605502E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.69762600000922E-4</c:v>
+                  <c:v>2.2660949998680699E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3943570000001195E-4</c:v>
+                  <c:v>6.7799039989040405E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.62174149999145E-3</c:v>
+                  <c:v>1.90440049996141E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.4852824000135997E-3</c:v>
+                  <c:v>6.2395390000347098E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1.8769104499995099E-2</c:v>
+                  <c:v>1.8886728899951698E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>5.4489293699975801E-2</c:v>
+                  <c:v>5.9779416799983602E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.17483226140001301</c:v>
+                  <c:v>0.184851757699971</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.59147903690000003</c:v>
+                  <c:v>0.54634230869996803</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.7475400210999901</c:v>
+                  <c:v>1.6081373045999401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,11 +6658,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="2" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lookup_1" connectionId="2" xr16:uid="{93E82282-31C2-B54F-B9C0-1712FEC8F3D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{F153EF74-4F61-A947-BC11-500A2CED89AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7271,7 +7271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A0FC0-8ECA-F840-B37C-24789FEB3689}">
   <dimension ref="B4:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -7563,8 +7563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844858F-4E6C-4B42-A1C2-4B199101FF85}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7590,11 +7590,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1.83269999070034E-6</v>
+        <v>1.71740007317566E-6</v>
       </c>
       <c r="E3" s="3">
         <f>C3*10^6</f>
-        <v>1.8326999907003401</v>
+        <v>1.71740007317566</v>
       </c>
       <c r="F3">
         <f>LOG(B3)</f>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="G3">
         <f>LOG(E3)</f>
-        <v>0.26309137764793378</v>
+        <v>0.23487147706729347</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -7610,19 +7610,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2.9982000000927598E-6</v>
+        <v>2.94110004688263E-6</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E22" si="0">C4*10^6</f>
-        <v>2.9982000000927598</v>
+        <f t="shared" ref="E4:E16" si="0">C4*10^6</f>
+        <v>2.9411000468826298</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="1">LOG(B4)</f>
+        <f t="shared" ref="F4:F16" si="1">LOG(B4)</f>
         <v>0.47712125471966244</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G22" si="2">LOG(E4)</f>
-        <v>0.47686059983966689</v>
+        <f t="shared" ref="G4:G16" si="2">LOG(E4)</f>
+        <v>0.4685097980772962</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -7630,11 +7630,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>6.8829000156256299E-6</v>
+        <v>1.2612499995157099E-5</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>6.8829000156256299</v>
+        <v>12.6124999951571</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.83777146082535126</v>
+        <v>1.1008011790782082</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -7650,11 +7650,11 @@
         <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>1.7811099996833899E-5</v>
+        <v>2.3695700156167699E-5</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>17.811099996833899</v>
+        <v>23.6957001561677</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1.2506907419114706</v>
+        <v>1.3746695456780744</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -7670,11 +7670,11 @@
         <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>5.3864300002714997E-5</v>
+        <v>9.4283799944605502E-5</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>53.864300002714998</v>
+        <v>94.283799944605505</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>1.731301020314056</v>
+        <v>1.9744370776889124</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -7690,11 +7690,11 @@
         <v>300</v>
       </c>
       <c r="C8" s="2">
-        <v>1.69762600000922E-4</v>
+        <v>2.2660949998680699E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>169.76260000092199</v>
+        <v>226.60949998680698</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>2.2298420180499989</v>
+        <v>2.3552781125236977</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -7710,11 +7710,11 @@
         <v>1000</v>
       </c>
       <c r="C9" s="2">
-        <v>5.3943570000001195E-4</v>
+        <v>6.7799039989040405E-4</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>539.43570000001193</v>
+        <v>677.99039989040409</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>2.7319396847938431</v>
+        <v>2.8312235444509266</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -7730,11 +7730,11 @@
         <v>3000</v>
       </c>
       <c r="C10" s="2">
-        <v>1.62174149999145E-3</v>
+        <v>1.90440049996141E-3</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>1621.7414999914502</v>
+        <v>1904.4004999614101</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>3.2099816303473032</v>
+        <v>3.2797582868176236</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -7750,11 +7750,11 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>5.4852824000135997E-3</v>
+        <v>6.2395390000347098E-3</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>5485.2824000135997</v>
+        <v>6239.5390000347097</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>3.7391989913656922</v>
+        <v>3.795152503602774</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -7770,11 +7770,11 @@
         <v>30000</v>
       </c>
       <c r="C12">
-        <v>1.8769104499995099E-2</v>
+        <v>1.8886728899951698E-2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>18769.104499995101</v>
+        <v>18886.728899951697</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>4.2734435523236236</v>
+        <v>4.2761567465022292</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -7790,11 +7790,11 @@
         <v>100000</v>
       </c>
       <c r="C13">
-        <v>5.4489293699975801E-2</v>
+        <v>5.9779416799983602E-2</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>54489.293699975802</v>
+        <v>59779.416799983599</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>4.7363111785374157</v>
+        <v>4.7765516738048941</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -7810,11 +7810,11 @@
         <v>300000</v>
       </c>
       <c r="C14">
-        <v>0.17483226140001301</v>
+        <v>0.184851757699971</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>174832.261400013</v>
+        <v>184851.757699971</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>5.2426215750673792</v>
+        <v>5.2668235845048459</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -7830,11 +7830,11 @@
         <v>1000000</v>
       </c>
       <c r="C15">
-        <v>0.59147903690000003</v>
+        <v>0.54634230869996803</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>591479.03690000006</v>
+        <v>546342.30869996804</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>5.771939357045123</v>
+        <v>5.7374648335430596</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -7850,11 +7850,11 @@
         <v>3000000</v>
       </c>
       <c r="C16">
-        <v>1.7475400210999901</v>
+        <v>1.6081373045999401</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>1747540.02109999</v>
+        <v>1608137.3045999401</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>6.2424271304800136</v>
+        <v>6.2063231265544445</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
